--- a/oncoplot_options_v2.xlsx
+++ b/oncoplot_options_v2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ysmed\Desktop\KYH\KYH\분석\BI study\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ysmed\AppData\Roaming\MobaXterm\slash\RemoteFiles\68728_5_72\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B058E9B-4B44-4432-8B69-C65EE399A327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C11ED1D4-C80A-4A2C-8C42-151B314106C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-210" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="109">
   <si>
     <t>Options</t>
   </si>
@@ -433,10 +433,6 @@
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
-    <t>Fusion</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
     <t>Inversion</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
@@ -467,6 +463,22 @@
   </si>
   <si>
     <t>Partial_gene_deletion</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>3'_UTR_variant</t>
+  </si>
+  <si>
+    <t>Promoter_variant</t>
+  </si>
+  <si>
+    <t>MediumAquamarine</t>
+  </si>
+  <si>
+    <t>Tomato</t>
+  </si>
+  <si>
+    <t>5'_UTR_variant</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
 </sst>
@@ -474,7 +486,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -715,7 +727,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -1120,13 +1132,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1325,6 +1348,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1346,16 +1381,10 @@
     <xf numFmtId="0" fontId="12" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2072,13 +2101,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O105"/>
+  <dimension ref="A1:O107"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="28.875" customWidth="1"/>
     <col min="2" max="2" width="25" style="1" customWidth="1"/>
@@ -2097,7 +2126,7 @@
     <col min="15" max="15" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="24" customHeight="1" thickBot="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2106,64 +2135,64 @@
       </c>
       <c r="F1" s="4"/>
     </row>
-    <row r="2" spans="1:15" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="17.25" customHeight="1" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="66" t="s">
+      <c r="C2" s="70" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="7"/>
-      <c r="F2" s="69" t="s">
+      <c r="F2" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="69"/>
-      <c r="N2" s="69"/>
-      <c r="O2" s="69"/>
-    </row>
-    <row r="3" spans="1:15" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="73"/>
+    </row>
+    <row r="3" spans="1:15" ht="17.25" customHeight="1" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="67"/>
+      <c r="C3" s="71"/>
       <c r="E3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="70" t="s">
+      <c r="F3" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="70"/>
-      <c r="K3" s="71" t="s">
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="71"/>
-      <c r="M3" s="71"/>
-      <c r="N3" s="71"/>
-      <c r="O3" s="71"/>
-    </row>
-    <row r="4" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L3" s="75"/>
+      <c r="M3" s="75"/>
+      <c r="N3" s="75"/>
+      <c r="O3" s="75"/>
+    </row>
+    <row r="4" spans="1:15" ht="17.25" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>81</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C4" s="67"/>
+      <c r="C4" s="71"/>
       <c r="E4" s="8" t="s">
         <v>13</v>
       </c>
@@ -2186,14 +2215,14 @@
       <c r="N4" s="10"/>
       <c r="O4" s="11"/>
     </row>
-    <row r="5" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="18" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="67"/>
+      <c r="C5" s="71"/>
       <c r="E5" s="8" t="s">
         <v>20</v>
       </c>
@@ -2216,14 +2245,14 @@
       <c r="N5" s="17"/>
       <c r="O5" s="18"/>
     </row>
-    <row r="6" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" ht="18" customHeight="1" thickBot="1">
       <c r="A6" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="67"/>
+      <c r="C6" s="71"/>
       <c r="E6" s="8" t="s">
         <v>26</v>
       </c>
@@ -2246,14 +2275,14 @@
       <c r="N6" s="21"/>
       <c r="O6" s="22"/>
     </row>
-    <row r="7" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="18" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="67"/>
+      <c r="C7" s="71"/>
       <c r="E7" s="8" t="s">
         <v>32</v>
       </c>
@@ -2270,14 +2299,14 @@
       <c r="N7" s="24"/>
       <c r="O7" s="25"/>
     </row>
-    <row r="8" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="18" customHeight="1">
       <c r="A8" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="67"/>
+      <c r="C8" s="71"/>
       <c r="E8" s="8" t="s">
         <v>36</v>
       </c>
@@ -2294,14 +2323,14 @@
       <c r="N8" s="24"/>
       <c r="O8" s="25"/>
     </row>
-    <row r="9" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="18" customHeight="1">
       <c r="A9" s="5" t="s">
         <v>82</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C9" s="67"/>
+      <c r="C9" s="71"/>
       <c r="E9" s="8" t="s">
         <v>40</v>
       </c>
@@ -2318,14 +2347,14 @@
       <c r="N9" s="24"/>
       <c r="O9" s="25"/>
     </row>
-    <row r="10" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="18" customHeight="1">
       <c r="A10" s="5" t="s">
         <v>34</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="67"/>
+      <c r="C10" s="71"/>
       <c r="E10" s="8" t="s">
         <v>44</v>
       </c>
@@ -2340,14 +2369,14 @@
       <c r="N10" s="24"/>
       <c r="O10" s="25"/>
     </row>
-    <row r="11" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="18" customHeight="1">
       <c r="A11" s="5" t="s">
         <v>38</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="67"/>
+      <c r="C11" s="71"/>
       <c r="E11" s="8" t="s">
         <v>47</v>
       </c>
@@ -2362,14 +2391,14 @@
       <c r="N11" s="24"/>
       <c r="O11" s="25"/>
     </row>
-    <row r="12" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="18" customHeight="1">
       <c r="A12" s="5" t="s">
         <v>42</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="67"/>
+      <c r="C12" s="71"/>
       <c r="E12" s="8" t="s">
         <v>50</v>
       </c>
@@ -2384,14 +2413,14 @@
       <c r="N12" s="24"/>
       <c r="O12" s="25"/>
     </row>
-    <row r="13" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="18" customHeight="1">
       <c r="A13" s="5" t="s">
         <v>45</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="67"/>
+      <c r="C13" s="71"/>
       <c r="E13" s="8" t="s">
         <v>53</v>
       </c>
@@ -2406,14 +2435,14 @@
       <c r="N13" s="24"/>
       <c r="O13" s="25"/>
     </row>
-    <row r="14" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" ht="18" customHeight="1" thickBot="1">
       <c r="A14" s="5" t="s">
         <v>48</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="67"/>
+      <c r="C14" s="71"/>
       <c r="E14" s="27" t="s">
         <v>56</v>
       </c>
@@ -2428,36 +2457,36 @@
       <c r="N14" s="32"/>
       <c r="O14" s="33"/>
     </row>
-    <row r="15" spans="1:15" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" ht="17.25" customHeight="1" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>51</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="67"/>
-    </row>
-    <row r="16" spans="1:15" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C15" s="71"/>
+    </row>
+    <row r="16" spans="1:15" ht="17.25" customHeight="1" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>54</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="67"/>
-      <c r="E16" s="72" t="s">
+      <c r="C16" s="71"/>
+      <c r="E16" s="76" t="s">
         <v>61</v>
       </c>
-      <c r="F16" s="72"/>
-    </row>
-    <row r="17" spans="1:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F16" s="76"/>
+    </row>
+    <row r="17" spans="1:14" ht="18" customHeight="1">
       <c r="A17" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="74" t="s">
+      <c r="B17" s="67" t="s">
         <v>58</v>
       </c>
-      <c r="C17" s="68"/>
+      <c r="C17" s="71"/>
       <c r="E17" s="36" t="s">
         <v>63</v>
       </c>
@@ -2471,16 +2500,14 @@
       <c r="M17" s="37"/>
       <c r="N17" s="38"/>
     </row>
-    <row r="18" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="73" t="s">
-        <v>91</v>
-      </c>
-      <c r="B18" s="75" t="s">
-        <v>97</v>
-      </c>
-      <c r="C18" s="66" t="s">
-        <v>90</v>
-      </c>
+    <row r="18" spans="1:14" ht="18" customHeight="1">
+      <c r="A18" s="77" t="s">
+        <v>108</v>
+      </c>
+      <c r="B18" s="69" t="s">
+        <v>99</v>
+      </c>
+      <c r="C18" s="71"/>
       <c r="E18" s="39" t="s">
         <v>65</v>
       </c>
@@ -2494,14 +2521,14 @@
       <c r="M18" s="40"/>
       <c r="N18" s="41"/>
     </row>
-    <row r="19" spans="1:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="73" t="s">
-        <v>92</v>
-      </c>
-      <c r="B19" s="76" t="s">
-        <v>98</v>
-      </c>
-      <c r="C19" s="67"/>
+    <row r="19" spans="1:14" ht="18" customHeight="1" thickBot="1">
+      <c r="A19" s="77" t="s">
+        <v>104</v>
+      </c>
+      <c r="B19" s="78" t="s">
+        <v>106</v>
+      </c>
+      <c r="C19" s="71"/>
       <c r="E19" s="42" t="s">
         <v>67</v>
       </c>
@@ -2515,279 +2542,281 @@
       <c r="M19" s="44"/>
       <c r="N19" s="45"/>
     </row>
-    <row r="20" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="73" t="s">
+    <row r="20" spans="1:14" ht="18" customHeight="1" thickBot="1">
+      <c r="A20" s="77" t="s">
+        <v>105</v>
+      </c>
+      <c r="B20" s="78" t="s">
+        <v>107</v>
+      </c>
+      <c r="C20" s="72"/>
+    </row>
+    <row r="21" spans="1:14" ht="18" customHeight="1">
+      <c r="A21" s="66" t="s">
+        <v>91</v>
+      </c>
+      <c r="B21" s="68" t="s">
+        <v>96</v>
+      </c>
+      <c r="C21" s="70" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="18" customHeight="1">
+      <c r="A22" s="66" t="s">
+        <v>92</v>
+      </c>
+      <c r="B22" s="69" t="s">
+        <v>97</v>
+      </c>
+      <c r="C22" s="71"/>
+    </row>
+    <row r="23" spans="1:14" ht="18" customHeight="1">
+      <c r="A23" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="B20" s="76" t="s">
-        <v>99</v>
-      </c>
-      <c r="C20" s="67"/>
-    </row>
-    <row r="21" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="73" t="s">
+      <c r="B23" s="69" t="s">
+        <v>98</v>
+      </c>
+      <c r="C23" s="71"/>
+    </row>
+    <row r="24" spans="1:14" ht="18" customHeight="1">
+      <c r="A24" s="66" t="s">
         <v>94</v>
       </c>
-      <c r="B21" s="76" t="s">
+      <c r="B24" s="69" t="s">
         <v>100</v>
       </c>
-      <c r="C21" s="67"/>
-    </row>
-    <row r="22" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="73" t="s">
+      <c r="C24" s="71"/>
+    </row>
+    <row r="25" spans="1:14" ht="18" customHeight="1">
+      <c r="A25" s="66" t="s">
         <v>95</v>
       </c>
-      <c r="B22" s="76" t="s">
+      <c r="B25" s="69" t="s">
         <v>101</v>
       </c>
-      <c r="C22" s="67"/>
-    </row>
-    <row r="23" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="73" t="s">
-        <v>96</v>
-      </c>
-      <c r="B23" s="76" t="s">
+      <c r="C25" s="71"/>
+    </row>
+    <row r="26" spans="1:14" ht="18" customHeight="1" thickBot="1">
+      <c r="A26" s="66" t="s">
+        <v>103</v>
+      </c>
+      <c r="B26" s="69" t="s">
         <v>102</v>
       </c>
-      <c r="C23" s="67"/>
-    </row>
-    <row r="24" spans="1:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="73" t="s">
-        <v>104</v>
-      </c>
-      <c r="B24" s="76" t="s">
-        <v>103</v>
-      </c>
-      <c r="C24" s="68"/>
-    </row>
-    <row r="25" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="34" t="s">
+      <c r="C26" s="72"/>
+    </row>
+    <row r="27" spans="1:14" ht="18" customHeight="1">
+      <c r="A27" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="B25" s="54">
+      <c r="B27" s="54">
         <v>0.5</v>
       </c>
-      <c r="C25" s="66" t="s">
+      <c r="C27" s="70" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="34" t="s">
+    <row r="28" spans="1:14" ht="18" customHeight="1">
+      <c r="A28" s="34" t="s">
         <v>62</v>
-      </c>
-      <c r="B26" s="35" t="s">
-        <v>87</v>
-      </c>
-      <c r="C26" s="67"/>
-    </row>
-    <row r="27" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="B27" s="35" t="s">
-        <v>87</v>
-      </c>
-      <c r="C27" s="67"/>
-    </row>
-    <row r="28" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="34" t="s">
-        <v>66</v>
       </c>
       <c r="B28" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="C28" s="67"/>
-    </row>
-    <row r="29" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="71"/>
+    </row>
+    <row r="29" spans="1:14" ht="17.25" customHeight="1">
       <c r="A29" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="C29" s="71"/>
+    </row>
+    <row r="30" spans="1:14" ht="17.25" customHeight="1">
+      <c r="A30" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="C30" s="71"/>
+    </row>
+    <row r="31" spans="1:14" ht="17.25" customHeight="1">
+      <c r="A31" s="34" t="s">
         <v>68</v>
-      </c>
-      <c r="B29" s="35" t="s">
-        <v>86</v>
-      </c>
-      <c r="C29" s="67"/>
-    </row>
-    <row r="30" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="B30" s="35" t="s">
-        <v>86</v>
-      </c>
-      <c r="C30" s="67"/>
-    </row>
-    <row r="31" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="46" t="s">
-        <v>85</v>
       </c>
       <c r="B31" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="C31" s="67"/>
-    </row>
-    <row r="32" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="47" t="s">
+      <c r="C31" s="71"/>
+    </row>
+    <row r="32" spans="1:14" ht="17.25" customHeight="1">
+      <c r="A32" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="B32" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="C32" s="71"/>
+    </row>
+    <row r="33" spans="1:3" ht="17.25" customHeight="1">
+      <c r="A33" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="B33" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="C33" s="71"/>
+    </row>
+    <row r="34" spans="1:3" ht="17.25" customHeight="1">
+      <c r="A34" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="B32" s="48" t="s">
+      <c r="B34" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="C32" s="67"/>
-    </row>
-    <row r="33" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="49" t="s">
+      <c r="C34" s="71"/>
+    </row>
+    <row r="35" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A35" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="B33" s="48" t="s">
+      <c r="B35" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="C33" s="67"/>
-    </row>
-    <row r="34" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="50" t="s">
+      <c r="C35" s="71"/>
+    </row>
+    <row r="36" spans="1:3" ht="17.25" customHeight="1">
+      <c r="A36" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B36" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C34" s="67"/>
-    </row>
-    <row r="35" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="51" t="s">
+      <c r="C36" s="71"/>
+    </row>
+    <row r="37" spans="1:3" ht="17.25" thickBot="1">
+      <c r="A37" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="B35" s="52" t="s">
+      <c r="B37" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="C35" s="68"/>
-    </row>
-    <row r="36" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="53" t="s">
+      <c r="C37" s="72"/>
+    </row>
+    <row r="38" spans="1:3" hidden="1">
+      <c r="A38" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="B36" s="54" t="str">
+      <c r="B38" s="54" t="str">
         <f>IF(F4="","NA",F4)</f>
         <v>Group</v>
       </c>
     </row>
-    <row r="37" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="55" t="s">
+    <row r="39" spans="1:3" hidden="1">
+      <c r="A39" s="55" t="s">
         <v>76</v>
       </c>
-      <c r="B37" s="6" t="str">
+      <c r="B39" s="6" t="str">
         <f>IF(G4="","NA",G4)</f>
         <v>Response</v>
       </c>
     </row>
-    <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="55" t="s">
-        <v>76</v>
-      </c>
-      <c r="B38" s="6" t="str">
-        <f>IF(H4="","NA",H4)</f>
-        <v>NA</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="55" t="s">
-        <v>76</v>
-      </c>
-      <c r="B39" s="6" t="str">
-        <f>IF(I4="","NA",I4)</f>
-        <v>NA</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" hidden="1">
       <c r="A40" s="55" t="s">
         <v>76</v>
       </c>
       <c r="B40" s="6" t="str">
+        <f>IF(H4="","NA",H4)</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" hidden="1">
+      <c r="A41" s="55" t="s">
+        <v>76</v>
+      </c>
+      <c r="B41" s="6" t="str">
+        <f>IF(I4="","NA",I4)</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" hidden="1">
+      <c r="A42" s="55" t="s">
+        <v>76</v>
+      </c>
+      <c r="B42" s="6" t="str">
         <f>IF(J4="","NA",J4)</f>
         <v>NA</v>
       </c>
     </row>
-    <row r="41" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="56" t="s">
+    <row r="43" spans="1:3" hidden="1">
+      <c r="A43" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="B41" s="6" t="str">
+      <c r="B43" s="6" t="str">
         <f>IF(K4="","NA",K4)</f>
         <v>Age</v>
       </c>
     </row>
-    <row r="42" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="56" t="s">
+    <row r="44" spans="1:3" hidden="1">
+      <c r="A44" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="B42" s="6" t="str">
+      <c r="B44" s="6" t="str">
         <f>IF(L4="","NA",L4)</f>
         <v>BMI</v>
       </c>
     </row>
-    <row r="43" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="56" t="s">
-        <v>77</v>
-      </c>
-      <c r="B43" s="6" t="str">
-        <f>IF(M4="","NA",M4)</f>
-        <v>NA</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="56" t="s">
-        <v>77</v>
-      </c>
-      <c r="B44" s="6" t="str">
-        <f>IF(N4="","NA",N4)</f>
-        <v>NA</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" hidden="1">
       <c r="A45" s="56" t="s">
         <v>77</v>
       </c>
       <c r="B45" s="6" t="str">
+        <f>IF(M4="","NA",M4)</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" hidden="1">
+      <c r="A46" s="56" t="s">
+        <v>77</v>
+      </c>
+      <c r="B46" s="6" t="str">
+        <f>IF(N4="","NA",N4)</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" hidden="1">
+      <c r="A47" s="56" t="s">
+        <v>77</v>
+      </c>
+      <c r="B47" s="6" t="str">
         <f>IF(O4="","NA",O4)</f>
         <v>NA</v>
       </c>
     </row>
-    <row r="46" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="57" t="s">
-        <v>78</v>
-      </c>
-      <c r="B46" s="6" t="str">
-        <f t="shared" ref="B46:B55" si="0">IF(F5="","NA",F5)</f>
+    <row r="48" spans="1:3" hidden="1">
+      <c r="A48" s="57" t="s">
+        <v>78</v>
+      </c>
+      <c r="B48" s="6" t="str">
+        <f t="shared" ref="B48:B57" si="0">IF(F5="","NA",F5)</f>
         <v>cadetblue1</v>
       </c>
     </row>
-    <row r="47" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="57" t="s">
-        <v>78</v>
-      </c>
-      <c r="B47" s="6" t="str">
+    <row r="49" spans="1:2" hidden="1">
+      <c r="A49" s="57" t="s">
+        <v>78</v>
+      </c>
+      <c r="B49" s="6" t="str">
         <f t="shared" si="0"/>
         <v>dodgerblue</v>
       </c>
     </row>
-    <row r="48" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="57" t="s">
-        <v>78</v>
-      </c>
-      <c r="B48" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>NA</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="57" t="s">
-        <v>78</v>
-      </c>
-      <c r="B49" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>NA</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" hidden="1">
       <c r="A50" s="57" t="s">
         <v>78</v>
       </c>
@@ -2796,7 +2825,7 @@
         <v>NA</v>
       </c>
     </row>
-    <row r="51" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" hidden="1">
       <c r="A51" s="57" t="s">
         <v>78</v>
       </c>
@@ -2805,7 +2834,7 @@
         <v>NA</v>
       </c>
     </row>
-    <row r="52" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" hidden="1">
       <c r="A52" s="57" t="s">
         <v>78</v>
       </c>
@@ -2814,7 +2843,7 @@
         <v>NA</v>
       </c>
     </row>
-    <row r="53" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" hidden="1">
       <c r="A53" s="57" t="s">
         <v>78</v>
       </c>
@@ -2823,7 +2852,7 @@
         <v>NA</v>
       </c>
     </row>
-    <row r="54" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" hidden="1">
       <c r="A54" s="57" t="s">
         <v>78</v>
       </c>
@@ -2832,7 +2861,7 @@
         <v>NA</v>
       </c>
     </row>
-    <row r="55" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" hidden="1">
       <c r="A55" s="57" t="s">
         <v>78</v>
       </c>
@@ -2841,70 +2870,70 @@
         <v>NA</v>
       </c>
     </row>
-    <row r="56" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" hidden="1">
       <c r="A56" s="57" t="s">
         <v>78</v>
       </c>
       <c r="B56" s="6" t="str">
-        <f t="shared" ref="B56:B65" si="1">IF(G5="","NA",G5)</f>
+        <f t="shared" si="0"/>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" hidden="1">
+      <c r="A57" s="57" t="s">
+        <v>78</v>
+      </c>
+      <c r="B57" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" hidden="1">
+      <c r="A58" s="57" t="s">
+        <v>78</v>
+      </c>
+      <c r="B58" s="6" t="str">
+        <f t="shared" ref="B58:B67" si="1">IF(G5="","NA",G5)</f>
         <v>coral</v>
       </c>
     </row>
-    <row r="57" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="57" t="s">
-        <v>78</v>
-      </c>
-      <c r="B57" s="6" t="str">
+    <row r="59" spans="1:2" hidden="1">
+      <c r="A59" s="57" t="s">
+        <v>78</v>
+      </c>
+      <c r="B59" s="6" t="str">
         <f t="shared" si="1"/>
         <v>lightpink</v>
       </c>
     </row>
-    <row r="58" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="57" t="s">
-        <v>78</v>
-      </c>
-      <c r="B58" s="6" t="str">
+    <row r="60" spans="1:2" hidden="1">
+      <c r="A60" s="57" t="s">
+        <v>78</v>
+      </c>
+      <c r="B60" s="6" t="str">
         <f t="shared" si="1"/>
         <v>mediumpurple1</v>
       </c>
     </row>
-    <row r="59" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="57" t="s">
-        <v>78</v>
-      </c>
-      <c r="B59" s="6" t="str">
+    <row r="61" spans="1:2" hidden="1">
+      <c r="A61" s="57" t="s">
+        <v>78</v>
+      </c>
+      <c r="B61" s="6" t="str">
         <f t="shared" si="1"/>
         <v>peachpuff</v>
       </c>
     </row>
-    <row r="60" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="57" t="s">
-        <v>78</v>
-      </c>
-      <c r="B60" s="6" t="str">
+    <row r="62" spans="1:2" hidden="1">
+      <c r="A62" s="57" t="s">
+        <v>78</v>
+      </c>
+      <c r="B62" s="6" t="str">
         <f t="shared" si="1"/>
         <v>indianred1</v>
       </c>
     </row>
-    <row r="61" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="57" t="s">
-        <v>78</v>
-      </c>
-      <c r="B61" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>NA</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="57" t="s">
-        <v>78</v>
-      </c>
-      <c r="B62" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>NA</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" hidden="1">
       <c r="A63" s="57" t="s">
         <v>78</v>
       </c>
@@ -2913,7 +2942,7 @@
         <v>NA</v>
       </c>
     </row>
-    <row r="64" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" hidden="1">
       <c r="A64" s="57" t="s">
         <v>78</v>
       </c>
@@ -2922,7 +2951,7 @@
         <v>NA</v>
       </c>
     </row>
-    <row r="65" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" hidden="1">
       <c r="A65" s="57" t="s">
         <v>78</v>
       </c>
@@ -2931,34 +2960,34 @@
         <v>NA</v>
       </c>
     </row>
-    <row r="66" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" hidden="1">
       <c r="A66" s="57" t="s">
         <v>78</v>
       </c>
       <c r="B66" s="6" t="str">
-        <f t="shared" ref="B66:B75" si="2">IF(H5="","NA",H5)</f>
-        <v>NA</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" hidden="1">
       <c r="A67" s="57" t="s">
         <v>78</v>
       </c>
       <c r="B67" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>NA</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" hidden="1">
       <c r="A68" s="57" t="s">
         <v>78</v>
       </c>
       <c r="B68" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>NA</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+        <f t="shared" ref="B68:B77" si="2">IF(H5="","NA",H5)</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" hidden="1">
       <c r="A69" s="57" t="s">
         <v>78</v>
       </c>
@@ -2967,7 +2996,7 @@
         <v>NA</v>
       </c>
     </row>
-    <row r="70" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" hidden="1">
       <c r="A70" s="57" t="s">
         <v>78</v>
       </c>
@@ -2976,7 +3005,7 @@
         <v>NA</v>
       </c>
     </row>
-    <row r="71" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" hidden="1">
       <c r="A71" s="57" t="s">
         <v>78</v>
       </c>
@@ -2985,7 +3014,7 @@
         <v>NA</v>
       </c>
     </row>
-    <row r="72" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" hidden="1">
       <c r="A72" s="57" t="s">
         <v>78</v>
       </c>
@@ -2994,7 +3023,7 @@
         <v>NA</v>
       </c>
     </row>
-    <row r="73" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" hidden="1">
       <c r="A73" s="57" t="s">
         <v>78</v>
       </c>
@@ -3003,7 +3032,7 @@
         <v>NA</v>
       </c>
     </row>
-    <row r="74" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" hidden="1">
       <c r="A74" s="57" t="s">
         <v>78</v>
       </c>
@@ -3012,7 +3041,7 @@
         <v>NA</v>
       </c>
     </row>
-    <row r="75" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" hidden="1">
       <c r="A75" s="57" t="s">
         <v>78</v>
       </c>
@@ -3021,34 +3050,34 @@
         <v>NA</v>
       </c>
     </row>
-    <row r="76" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" hidden="1">
       <c r="A76" s="57" t="s">
         <v>78</v>
       </c>
       <c r="B76" s="6" t="str">
-        <f t="shared" ref="B76:B85" si="3">IF(I5="","NA",I5)</f>
-        <v>NA</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" hidden="1">
       <c r="A77" s="57" t="s">
         <v>78</v>
       </c>
       <c r="B77" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>NA</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" hidden="1">
       <c r="A78" s="57" t="s">
         <v>78</v>
       </c>
       <c r="B78" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>NA</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+        <f t="shared" ref="B78:B87" si="3">IF(I5="","NA",I5)</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" hidden="1">
       <c r="A79" s="57" t="s">
         <v>78</v>
       </c>
@@ -3057,7 +3086,7 @@
         <v>NA</v>
       </c>
     </row>
-    <row r="80" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" hidden="1">
       <c r="A80" s="57" t="s">
         <v>78</v>
       </c>
@@ -3066,7 +3095,7 @@
         <v>NA</v>
       </c>
     </row>
-    <row r="81" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" hidden="1">
       <c r="A81" s="57" t="s">
         <v>78</v>
       </c>
@@ -3075,7 +3104,7 @@
         <v>NA</v>
       </c>
     </row>
-    <row r="82" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" hidden="1">
       <c r="A82" s="57" t="s">
         <v>78</v>
       </c>
@@ -3084,7 +3113,7 @@
         <v>NA</v>
       </c>
     </row>
-    <row r="83" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" hidden="1">
       <c r="A83" s="57" t="s">
         <v>78</v>
       </c>
@@ -3093,7 +3122,7 @@
         <v>NA</v>
       </c>
     </row>
-    <row r="84" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" hidden="1">
       <c r="A84" s="57" t="s">
         <v>78</v>
       </c>
@@ -3102,7 +3131,7 @@
         <v>NA</v>
       </c>
     </row>
-    <row r="85" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" hidden="1">
       <c r="A85" s="57" t="s">
         <v>78</v>
       </c>
@@ -3111,34 +3140,34 @@
         <v>NA</v>
       </c>
     </row>
-    <row r="86" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" hidden="1">
       <c r="A86" s="57" t="s">
         <v>78</v>
       </c>
       <c r="B86" s="6" t="str">
-        <f t="shared" ref="B86:B95" si="4">IF(J5="","NA",J5)</f>
-        <v>NA</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" hidden="1">
       <c r="A87" s="57" t="s">
         <v>78</v>
       </c>
       <c r="B87" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>NA</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" hidden="1">
       <c r="A88" s="57" t="s">
         <v>78</v>
       </c>
       <c r="B88" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>NA</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+        <f t="shared" ref="B88:B97" si="4">IF(J5="","NA",J5)</f>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" hidden="1">
       <c r="A89" s="57" t="s">
         <v>78</v>
       </c>
@@ -3147,7 +3176,7 @@
         <v>NA</v>
       </c>
     </row>
-    <row r="90" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" hidden="1">
       <c r="A90" s="57" t="s">
         <v>78</v>
       </c>
@@ -3156,7 +3185,7 @@
         <v>NA</v>
       </c>
     </row>
-    <row r="91" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" hidden="1">
       <c r="A91" s="57" t="s">
         <v>78</v>
       </c>
@@ -3165,7 +3194,7 @@
         <v>NA</v>
       </c>
     </row>
-    <row r="92" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" hidden="1">
       <c r="A92" s="57" t="s">
         <v>78</v>
       </c>
@@ -3174,7 +3203,7 @@
         <v>NA</v>
       </c>
     </row>
-    <row r="93" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" hidden="1">
       <c r="A93" s="57" t="s">
         <v>78</v>
       </c>
@@ -3183,7 +3212,7 @@
         <v>NA</v>
       </c>
     </row>
-    <row r="94" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" hidden="1">
       <c r="A94" s="57" t="s">
         <v>78</v>
       </c>
@@ -3192,7 +3221,7 @@
         <v>NA</v>
       </c>
     </row>
-    <row r="95" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" hidden="1">
       <c r="A95" s="57" t="s">
         <v>78</v>
       </c>
@@ -3201,134 +3230,152 @@
         <v>NA</v>
       </c>
     </row>
-    <row r="96" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="58" t="s">
+    <row r="96" spans="1:2" hidden="1">
+      <c r="A96" s="57" t="s">
         <v>78</v>
       </c>
       <c r="B96" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" hidden="1">
+      <c r="A97" s="57" t="s">
+        <v>78</v>
+      </c>
+      <c r="B97" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>NA</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" hidden="1">
+      <c r="A98" s="58" t="s">
+        <v>78</v>
+      </c>
+      <c r="B98" s="6" t="str">
         <f>IF(K5="","NA",K5)</f>
         <v>lemonchiffon</v>
       </c>
     </row>
-    <row r="97" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="58" t="s">
-        <v>78</v>
-      </c>
-      <c r="B97" s="6" t="str">
+    <row r="99" spans="1:2" hidden="1">
+      <c r="A99" s="58" t="s">
+        <v>78</v>
+      </c>
+      <c r="B99" s="6" t="str">
         <f>IF(K6="","NA",K6)</f>
         <v>lightgoldenrod</v>
       </c>
     </row>
-    <row r="98" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="58" t="s">
-        <v>78</v>
-      </c>
-      <c r="B98" s="6" t="str">
+    <row r="100" spans="1:2" hidden="1">
+      <c r="A100" s="58" t="s">
+        <v>78</v>
+      </c>
+      <c r="B100" s="6" t="str">
         <f>IF(L5="","NA",L5)</f>
         <v>lavenderblush</v>
       </c>
     </row>
-    <row r="99" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="58" t="s">
-        <v>78</v>
-      </c>
-      <c r="B99" s="6" t="str">
+    <row r="101" spans="1:2" hidden="1">
+      <c r="A101" s="58" t="s">
+        <v>78</v>
+      </c>
+      <c r="B101" s="6" t="str">
         <f>IF(L6="","NA",L6)</f>
         <v>lightpink</v>
       </c>
     </row>
-    <row r="100" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="58" t="s">
-        <v>78</v>
-      </c>
-      <c r="B100" s="6" t="str">
+    <row r="102" spans="1:2" hidden="1">
+      <c r="A102" s="58" t="s">
+        <v>78</v>
+      </c>
+      <c r="B102" s="6" t="str">
         <f>IF(M5="","NA",M5)</f>
         <v>NA</v>
       </c>
     </row>
-    <row r="101" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="58" t="s">
-        <v>78</v>
-      </c>
-      <c r="B101" s="6" t="str">
+    <row r="103" spans="1:2" hidden="1">
+      <c r="A103" s="58" t="s">
+        <v>78</v>
+      </c>
+      <c r="B103" s="6" t="str">
         <f>IF(M6="","NA",M6)</f>
         <v>NA</v>
       </c>
     </row>
-    <row r="102" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="58" t="s">
-        <v>78</v>
-      </c>
-      <c r="B102" s="6" t="str">
+    <row r="104" spans="1:2" hidden="1">
+      <c r="A104" s="58" t="s">
+        <v>78</v>
+      </c>
+      <c r="B104" s="6" t="str">
         <f>IF(N5="","NA",N5)</f>
         <v>NA</v>
       </c>
     </row>
-    <row r="103" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="58" t="s">
-        <v>78</v>
-      </c>
-      <c r="B103" s="6" t="str">
+    <row r="105" spans="1:2" hidden="1">
+      <c r="A105" s="58" t="s">
+        <v>78</v>
+      </c>
+      <c r="B105" s="6" t="str">
         <f>IF(N6="","NA",N6)</f>
         <v>NA</v>
       </c>
     </row>
-    <row r="104" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="58" t="s">
-        <v>78</v>
-      </c>
-      <c r="B104" s="6" t="str">
+    <row r="106" spans="1:2" hidden="1">
+      <c r="A106" s="58" t="s">
+        <v>78</v>
+      </c>
+      <c r="B106" s="6" t="str">
         <f>IF(O5="","NA",O5)</f>
         <v>NA</v>
       </c>
     </row>
-    <row r="105" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="58" t="s">
-        <v>78</v>
-      </c>
-      <c r="B105" s="6" t="str">
+    <row r="107" spans="1:2" hidden="1">
+      <c r="A107" s="58" t="s">
+        <v>78</v>
+      </c>
+      <c r="B107" s="6" t="str">
         <f>IF(O6="","NA",O6)</f>
         <v>NA</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="C25:C35"/>
+    <mergeCell ref="C27:C37"/>
     <mergeCell ref="F2:O2"/>
     <mergeCell ref="F3:J3"/>
     <mergeCell ref="K3:O3"/>
     <mergeCell ref="E16:F16"/>
-    <mergeCell ref="C2:C17"/>
-    <mergeCell ref="C18:C24"/>
+    <mergeCell ref="C21:C26"/>
+    <mergeCell ref="C2:C20"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <dataValidations count="8">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="&quot;All&quot; or int" sqref="F5:G6 G7:G9 B35" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="&quot;All&quot; or int" sqref="F5:G6 G7:G9 B37" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Put sample name font size" sqref="B25" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Put sample name font size" sqref="B27" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="&lt;default&gt; no_x000a_if you want to cluster your samples, put the column name in your clinical annotation" sqref="B30" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Put your plot title" sqref="B34" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="&lt;default&gt; no_x000a_if you want to cluster your samples, put the column name in your clinical annotation" sqref="B32" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Put your plot title" sqref="B36" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" prompt="&quot;All&quot; or int" sqref="B36 B46:B105" xr:uid="{00000000-0002-0000-0000-000004000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" prompt="&quot;All&quot; or int" sqref="B38 B48:B107" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" prompt="Put your plot title" sqref="B37:B45" xr:uid="{00000000-0002-0000-0000-000005000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" prompt="Put your plot title" sqref="B39:B47" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Put variant colors" sqref="B2:B17" xr:uid="{00000000-0002-0000-0000-000006000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Put variant colors" sqref="B2:B17 B19:B20" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="&lt;default&gt; no_x000a_if you want to clustered group order, put the column name in your customed order. ex) Missing,PD,SD,PR" sqref="B31" xr:uid="{E9E0389C-475A-4C6D-B13C-4F1F5727E365}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="&lt;default&gt; no_x000a_if you want to clustered group order, put the column name in your customed order. ex) Missing,PD,SD,PR" sqref="B33" xr:uid="{E9E0389C-475A-4C6D-B13C-4F1F5727E365}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -3340,7 +3387,7 @@
           <x14:formula1>
             <xm:f>options!$E$3:$E$4</xm:f>
           </x14:formula1>
-          <xm:sqref>B29</xm:sqref>
+          <xm:sqref>B31</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000008000000}">
           <x14:formula1>
@@ -3349,7 +3396,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>B32</xm:sqref>
+          <xm:sqref>B34</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000009000000}">
           <x14:formula1>
@@ -3358,25 +3405,25 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>B33</xm:sqref>
+          <xm:sqref>B35</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" prompt="yes or no" xr:uid="{A22D53FD-8560-4E48-B061-B9D2F4D61607}">
           <x14:formula1>
             <xm:f>options!$B$3:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>B26</xm:sqref>
+          <xm:sqref>B28</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" prompt="yes or no" xr:uid="{6B4BDAC5-542F-472C-9739-251DBAA79F23}">
           <x14:formula1>
             <xm:f>options!$C$3:$C$4</xm:f>
           </x14:formula1>
-          <xm:sqref>B27</xm:sqref>
+          <xm:sqref>B29</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" prompt="yes or no" xr:uid="{A775DA1A-F4E6-447F-AC89-5AE462A05277}">
           <x14:formula1>
             <xm:f>options!$D$3:$D$4</xm:f>
           </x14:formula1>
-          <xm:sqref>B28</xm:sqref>
+          <xm:sqref>B30</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3392,7 +3439,7 @@
       <selection activeCell="V1" sqref="V1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="11.125" customWidth="1"/>
     <col min="3" max="3" width="12.5" customWidth="1"/>
@@ -3405,7 +3452,7 @@
     <col min="10" max="10" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:23" hidden="1">
       <c r="B2" s="59" t="s">
         <v>62</v>
       </c>
@@ -3428,7 +3475,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="2:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:23" hidden="1">
       <c r="B3" s="1" t="s">
         <v>71</v>
       </c>
@@ -3451,7 +3498,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="2:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:23" hidden="1">
       <c r="B4" s="1" t="s">
         <v>86</v>
       </c>
@@ -3472,7 +3519,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:23">
       <c r="B6" s="61" t="s">
         <v>80</v>
       </c>
@@ -3498,303 +3545,303 @@
       <c r="V6" s="62"/>
       <c r="W6" s="38"/>
     </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:23">
       <c r="B7" s="63"/>
       <c r="W7" s="41"/>
     </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:23">
       <c r="B8" s="63"/>
       <c r="W8" s="41"/>
     </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:23">
       <c r="B9" s="63"/>
       <c r="W9" s="41"/>
     </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:23">
       <c r="B10" s="63"/>
       <c r="W10" s="41"/>
     </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:23">
       <c r="B11" s="63"/>
       <c r="W11" s="41"/>
     </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:23">
       <c r="B12" s="63"/>
       <c r="W12" s="41"/>
     </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:23">
       <c r="B13" s="63"/>
       <c r="W13" s="41"/>
     </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:23">
       <c r="B14" s="63"/>
       <c r="W14" s="41"/>
     </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:23">
       <c r="B15" s="63"/>
       <c r="W15" s="41"/>
     </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:23">
       <c r="B16" s="63"/>
       <c r="W16" s="41"/>
     </row>
-    <row r="17" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:23">
       <c r="B17" s="63"/>
       <c r="W17" s="41"/>
     </row>
-    <row r="18" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:23">
       <c r="B18" s="63"/>
       <c r="W18" s="41"/>
     </row>
-    <row r="19" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:23">
       <c r="B19" s="63"/>
       <c r="W19" s="41"/>
     </row>
-    <row r="20" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:23">
       <c r="B20" s="63"/>
       <c r="W20" s="41"/>
     </row>
-    <row r="21" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:23">
       <c r="B21" s="63"/>
       <c r="W21" s="41"/>
     </row>
-    <row r="22" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:23">
       <c r="B22" s="63"/>
       <c r="W22" s="41"/>
     </row>
-    <row r="23" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:23">
       <c r="B23" s="63"/>
       <c r="W23" s="41"/>
     </row>
-    <row r="24" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:23">
       <c r="B24" s="63"/>
       <c r="W24" s="41"/>
     </row>
-    <row r="25" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:23">
       <c r="B25" s="63"/>
       <c r="W25" s="41"/>
     </row>
-    <row r="26" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:23">
       <c r="B26" s="63"/>
       <c r="W26" s="41"/>
     </row>
-    <row r="27" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:23">
       <c r="B27" s="63"/>
       <c r="W27" s="41"/>
     </row>
-    <row r="28" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:23">
       <c r="B28" s="63"/>
       <c r="W28" s="41"/>
     </row>
-    <row r="29" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:23">
       <c r="B29" s="63"/>
       <c r="W29" s="41"/>
     </row>
-    <row r="30" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:23">
       <c r="B30" s="63"/>
       <c r="W30" s="41"/>
     </row>
-    <row r="31" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:23">
       <c r="B31" s="63"/>
       <c r="W31" s="41"/>
     </row>
-    <row r="32" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:23">
       <c r="B32" s="63"/>
       <c r="W32" s="41"/>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:23">
       <c r="B33" s="63"/>
       <c r="W33" s="41"/>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:23">
       <c r="B34" s="63"/>
       <c r="W34" s="41"/>
     </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:23">
       <c r="B35" s="63"/>
       <c r="W35" s="41"/>
     </row>
-    <row r="36" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:23">
       <c r="B36" s="63"/>
       <c r="W36" s="41"/>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:23">
       <c r="B37" s="63"/>
       <c r="W37" s="41"/>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:23">
       <c r="B38" s="63"/>
       <c r="W38" s="41"/>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:23">
       <c r="B39" s="63"/>
       <c r="W39" s="41"/>
     </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:23">
       <c r="B40" s="63"/>
       <c r="W40" s="41"/>
     </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:23">
       <c r="B41" s="63"/>
       <c r="W41" s="41"/>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:23">
       <c r="B42" s="63"/>
       <c r="W42" s="41"/>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:23">
       <c r="B43" s="63"/>
       <c r="W43" s="41"/>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:23">
       <c r="B44" s="63"/>
       <c r="W44" s="41"/>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:23">
       <c r="B45" s="63"/>
       <c r="W45" s="41"/>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:23">
       <c r="B46" s="63"/>
       <c r="W46" s="41"/>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:23">
       <c r="B47" s="63"/>
       <c r="W47" s="41"/>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:23">
       <c r="B48" s="63"/>
       <c r="W48" s="41"/>
     </row>
-    <row r="49" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:23">
       <c r="B49" s="63"/>
       <c r="W49" s="41"/>
     </row>
-    <row r="50" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:23">
       <c r="B50" s="63"/>
       <c r="W50" s="41"/>
     </row>
-    <row r="51" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:23">
       <c r="B51" s="63"/>
       <c r="W51" s="41"/>
     </row>
-    <row r="52" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:23">
       <c r="B52" s="63"/>
       <c r="W52" s="41"/>
     </row>
-    <row r="53" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:23">
       <c r="B53" s="63"/>
       <c r="W53" s="41"/>
     </row>
-    <row r="54" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:23">
       <c r="B54" s="63"/>
       <c r="W54" s="41"/>
     </row>
-    <row r="55" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:23">
       <c r="B55" s="63"/>
       <c r="W55" s="41"/>
     </row>
-    <row r="56" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:23">
       <c r="B56" s="63"/>
       <c r="W56" s="41"/>
     </row>
-    <row r="57" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:23">
       <c r="B57" s="63"/>
       <c r="W57" s="41"/>
     </row>
-    <row r="58" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:23">
       <c r="B58" s="63"/>
       <c r="W58" s="41"/>
     </row>
-    <row r="59" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:23">
       <c r="B59" s="63"/>
       <c r="W59" s="41"/>
     </row>
-    <row r="60" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:23">
       <c r="B60" s="63"/>
       <c r="W60" s="41"/>
     </row>
-    <row r="61" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:23">
       <c r="B61" s="63"/>
       <c r="W61" s="41"/>
     </row>
-    <row r="62" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:23">
       <c r="B62" s="63"/>
       <c r="W62" s="41"/>
     </row>
-    <row r="63" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:23">
       <c r="B63" s="63"/>
       <c r="W63" s="41"/>
     </row>
-    <row r="64" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:23">
       <c r="B64" s="63"/>
       <c r="W64" s="41"/>
     </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:23">
       <c r="B65" s="63"/>
       <c r="W65" s="41"/>
     </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:23">
       <c r="B66" s="63"/>
       <c r="W66" s="41"/>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:23">
       <c r="B67" s="63"/>
       <c r="W67" s="41"/>
     </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:23">
       <c r="B68" s="63"/>
       <c r="W68" s="41"/>
     </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:23">
       <c r="B69" s="63"/>
       <c r="W69" s="41"/>
     </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:23">
       <c r="B70" s="63"/>
       <c r="W70" s="41"/>
     </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:23">
       <c r="B71" s="63"/>
       <c r="W71" s="41"/>
     </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:23">
       <c r="B72" s="63"/>
       <c r="W72" s="41"/>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:23">
       <c r="B73" s="63"/>
       <c r="W73" s="41"/>
     </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:23">
       <c r="B74" s="63"/>
       <c r="W74" s="41"/>
     </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:23">
       <c r="B75" s="63"/>
       <c r="W75" s="41"/>
     </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:23">
       <c r="B76" s="63"/>
       <c r="W76" s="41"/>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:23">
       <c r="B77" s="63"/>
       <c r="W77" s="41"/>
     </row>
-    <row r="78" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:23">
       <c r="B78" s="63"/>
       <c r="W78" s="41"/>
     </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:23">
       <c r="B79" s="63"/>
       <c r="W79" s="41"/>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:23">
       <c r="B80" s="63"/>
       <c r="W80" s="41"/>
     </row>
-    <row r="81" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:23">
       <c r="B81" s="64"/>
       <c r="C81" s="65"/>
       <c r="D81" s="65"/>
